--- a/eclipse-workspace/EjerciciosMaven/src/main/resources/_12_ejercicio/vehiculosElectricos.xlsx
+++ b/eclipse-workspace/EjerciciosMaven/src/main/resources/_12_ejercicio/vehiculosElectricos.xlsx
@@ -1,13 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2D6CF4F0-E1A8-4C58-B2E7-E622310FD181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="salamanca" sheetId="4" r:id="rId2"/>
+    <sheet name="valladolid" sheetId="5" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:W16"/>
   <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="PI9VQAB9IzJtGZmshTGGO/RBnPJtK0sfVw2i7kYuTck="/>
     </ext>
@@ -16,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="716">
   <si>
     <t>Nombre</t>
   </si>
@@ -2169,22 +2179,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -2194,35 +2204,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2412,26 +2431,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.14"/>
-    <col customWidth="1" min="2" max="2" width="61.86"/>
-    <col customWidth="1" min="3" max="3" width="89.71"/>
-    <col customWidth="1" min="4" max="26" width="10.71"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="61.85546875" customWidth="1"/>
+    <col min="3" max="3" width="89.7109375" customWidth="1"/>
+    <col min="4" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2473,7 +2492,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2496,7 +2515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -2519,7 +2538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -2542,7 +2561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -2565,7 +2584,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -2588,7 +2607,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -2608,7 +2627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
@@ -2631,7 +2650,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -2654,7 +2673,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
@@ -2677,7 +2696,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
@@ -2700,7 +2719,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
@@ -2723,7 +2742,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -2746,7 +2765,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>69</v>
       </c>
@@ -2769,7 +2788,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -2792,7 +2811,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>78</v>
       </c>
@@ -2815,7 +2834,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>84</v>
       </c>
@@ -2838,7 +2857,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>88</v>
       </c>
@@ -2861,7 +2880,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>94</v>
       </c>
@@ -2884,7 +2903,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>99</v>
       </c>
@@ -2907,7 +2926,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>104</v>
       </c>
@@ -2930,7 +2949,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>109</v>
       </c>
@@ -2953,7 +2972,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>111</v>
       </c>
@@ -2976,7 +2995,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>113</v>
       </c>
@@ -2999,7 +3018,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>117</v>
       </c>
@@ -3022,7 +3041,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>121</v>
       </c>
@@ -3045,7 +3064,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>127</v>
       </c>
@@ -3068,7 +3087,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>132</v>
       </c>
@@ -3091,7 +3110,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>132</v>
       </c>
@@ -3114,7 +3133,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>132</v>
       </c>
@@ -3137,7 +3156,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>138</v>
       </c>
@@ -3160,7 +3179,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>138</v>
       </c>
@@ -3183,7 +3202,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>142</v>
       </c>
@@ -3206,7 +3225,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>142</v>
       </c>
@@ -3229,7 +3248,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>146</v>
       </c>
@@ -3252,7 +3271,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>150</v>
       </c>
@@ -3275,7 +3294,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>154</v>
       </c>
@@ -3295,7 +3314,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>158</v>
       </c>
@@ -3318,7 +3337,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>162</v>
       </c>
@@ -3341,7 +3360,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>165</v>
       </c>
@@ -3361,7 +3380,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>169</v>
       </c>
@@ -3384,7 +3403,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>175</v>
       </c>
@@ -3407,7 +3426,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>180</v>
       </c>
@@ -3430,7 +3449,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>184</v>
       </c>
@@ -3453,7 +3472,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>188</v>
       </c>
@@ -3473,7 +3492,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>192</v>
       </c>
@@ -3496,7 +3515,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>196</v>
       </c>
@@ -3519,7 +3538,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>200</v>
       </c>
@@ -3542,7 +3561,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>204</v>
       </c>
@@ -3565,7 +3584,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>204</v>
       </c>
@@ -3588,7 +3607,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>204</v>
       </c>
@@ -3611,7 +3630,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>208</v>
       </c>
@@ -3634,7 +3653,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>212</v>
       </c>
@@ -3657,7 +3676,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>216</v>
       </c>
@@ -3680,7 +3699,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>220</v>
       </c>
@@ -3703,7 +3722,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>225</v>
       </c>
@@ -3726,7 +3745,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>229</v>
       </c>
@@ -3749,7 +3768,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>234</v>
       </c>
@@ -3769,7 +3788,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>238</v>
       </c>
@@ -3792,7 +3811,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>243</v>
       </c>
@@ -3812,7 +3831,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>247</v>
       </c>
@@ -3835,7 +3854,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>247</v>
       </c>
@@ -3858,7 +3877,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>251</v>
       </c>
@@ -3881,7 +3900,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>255</v>
       </c>
@@ -3904,7 +3923,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>259</v>
       </c>
@@ -3927,7 +3946,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>259</v>
       </c>
@@ -3950,7 +3969,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>255</v>
       </c>
@@ -3973,7 +3992,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>262</v>
       </c>
@@ -3996,7 +4015,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>266</v>
       </c>
@@ -4019,7 +4038,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>262</v>
       </c>
@@ -4042,7 +4061,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>266</v>
       </c>
@@ -4065,7 +4084,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>268</v>
       </c>
@@ -4088,7 +4107,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>272</v>
       </c>
@@ -4111,7 +4130,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>272</v>
       </c>
@@ -4134,7 +4153,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>268</v>
       </c>
@@ -4157,7 +4176,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>274</v>
       </c>
@@ -4180,7 +4199,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>278</v>
       </c>
@@ -4200,7 +4219,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>282</v>
       </c>
@@ -4223,7 +4242,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>286</v>
       </c>
@@ -4246,7 +4265,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>289</v>
       </c>
@@ -4269,7 +4288,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>289</v>
       </c>
@@ -4292,7 +4311,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>293</v>
       </c>
@@ -4315,7 +4334,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>297</v>
       </c>
@@ -4338,7 +4357,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>301</v>
       </c>
@@ -4361,7 +4380,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>305</v>
       </c>
@@ -4384,7 +4403,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>308</v>
       </c>
@@ -4407,7 +4426,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>308</v>
       </c>
@@ -4430,7 +4449,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>312</v>
       </c>
@@ -4453,7 +4472,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>316</v>
       </c>
@@ -4476,7 +4495,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>320</v>
       </c>
@@ -4499,7 +4518,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>325</v>
       </c>
@@ -4522,7 +4541,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>325</v>
       </c>
@@ -4545,7 +4564,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>329</v>
       </c>
@@ -4568,7 +4587,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>329</v>
       </c>
@@ -4591,7 +4610,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>333</v>
       </c>
@@ -4614,7 +4633,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>333</v>
       </c>
@@ -4637,7 +4656,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>337</v>
       </c>
@@ -4657,7 +4676,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>341</v>
       </c>
@@ -4680,7 +4699,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>341</v>
       </c>
@@ -4703,7 +4722,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>345</v>
       </c>
@@ -4726,7 +4745,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>349</v>
       </c>
@@ -4749,7 +4768,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>353</v>
       </c>
@@ -4772,7 +4791,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>353</v>
       </c>
@@ -4795,7 +4814,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>357</v>
       </c>
@@ -4818,7 +4837,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>357</v>
       </c>
@@ -4841,7 +4860,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>365</v>
       </c>
@@ -4864,7 +4883,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>369</v>
       </c>
@@ -4887,7 +4906,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>370</v>
       </c>
@@ -4910,7 +4929,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>371</v>
       </c>
@@ -4933,7 +4952,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>376</v>
       </c>
@@ -4956,7 +4975,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>380</v>
       </c>
@@ -4979,7 +4998,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>384</v>
       </c>
@@ -5002,7 +5021,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>389</v>
       </c>
@@ -5022,7 +5041,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>393</v>
       </c>
@@ -5045,7 +5064,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>397</v>
       </c>
@@ -5068,7 +5087,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>401</v>
       </c>
@@ -5091,7 +5110,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>405</v>
       </c>
@@ -5114,7 +5133,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>409</v>
       </c>
@@ -5134,7 +5153,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>414</v>
       </c>
@@ -5157,7 +5176,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>418</v>
       </c>
@@ -5180,7 +5199,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>422</v>
       </c>
@@ -5203,7 +5222,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>426</v>
       </c>
@@ -5226,7 +5245,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>430</v>
       </c>
@@ -5249,7 +5268,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>434</v>
       </c>
@@ -5272,7 +5291,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>438</v>
       </c>
@@ -5295,7 +5314,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>442</v>
       </c>
@@ -5318,7 +5337,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>446</v>
       </c>
@@ -5338,7 +5357,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>450</v>
       </c>
@@ -5361,7 +5380,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>454</v>
       </c>
@@ -5384,7 +5403,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>458</v>
       </c>
@@ -5407,7 +5426,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>463</v>
       </c>
@@ -5430,7 +5449,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>467</v>
       </c>
@@ -5453,7 +5472,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>471</v>
       </c>
@@ -5476,7 +5495,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>475</v>
       </c>
@@ -5499,7 +5518,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>479</v>
       </c>
@@ -5522,7 +5541,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>483</v>
       </c>
@@ -5545,7 +5564,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>487</v>
       </c>
@@ -5568,7 +5587,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>491</v>
       </c>
@@ -5591,7 +5610,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>495</v>
       </c>
@@ -5614,7 +5633,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>495</v>
       </c>
@@ -5637,7 +5656,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>499</v>
       </c>
@@ -5660,7 +5679,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>499</v>
       </c>
@@ -5683,7 +5702,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>499</v>
       </c>
@@ -5706,7 +5725,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>495</v>
       </c>
@@ -5729,7 +5748,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>502</v>
       </c>
@@ -5752,7 +5771,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>506</v>
       </c>
@@ -5775,7 +5794,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>509</v>
       </c>
@@ -5798,7 +5817,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>513</v>
       </c>
@@ -5821,7 +5840,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>516</v>
       </c>
@@ -5844,7 +5863,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>521</v>
       </c>
@@ -5867,7 +5886,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>525</v>
       </c>
@@ -5890,7 +5909,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>529</v>
       </c>
@@ -5913,7 +5932,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>533</v>
       </c>
@@ -5936,7 +5955,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>538</v>
       </c>
@@ -5959,7 +5978,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>542</v>
       </c>
@@ -5982,7 +6001,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>546</v>
       </c>
@@ -6005,7 +6024,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>551</v>
       </c>
@@ -6028,7 +6047,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>555</v>
       </c>
@@ -6051,7 +6070,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>559</v>
       </c>
@@ -6074,7 +6093,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>564</v>
       </c>
@@ -6097,7 +6116,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>568</v>
       </c>
@@ -6120,7 +6139,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>572</v>
       </c>
@@ -6143,7 +6162,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>576</v>
       </c>
@@ -6166,7 +6185,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>580</v>
       </c>
@@ -6189,7 +6208,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>584</v>
       </c>
@@ -6212,7 +6231,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>588</v>
       </c>
@@ -6235,7 +6254,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>592</v>
       </c>
@@ -6258,7 +6277,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>597</v>
       </c>
@@ -6278,7 +6297,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>601</v>
       </c>
@@ -6301,7 +6320,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>605</v>
       </c>
@@ -6324,7 +6343,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>609</v>
       </c>
@@ -6347,7 +6366,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>613</v>
       </c>
@@ -6370,7 +6389,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>617</v>
       </c>
@@ -6393,7 +6412,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>621</v>
       </c>
@@ -6416,7 +6435,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>625</v>
       </c>
@@ -6439,7 +6458,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>630</v>
       </c>
@@ -6462,7 +6481,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>634</v>
       </c>
@@ -6485,7 +6504,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>638</v>
       </c>
@@ -6508,7 +6527,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>642</v>
       </c>
@@ -6531,7 +6550,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>646</v>
       </c>
@@ -6554,7 +6573,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>650</v>
       </c>
@@ -6577,7 +6596,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>654</v>
       </c>
@@ -6600,7 +6619,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>659</v>
       </c>
@@ -6623,7 +6642,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>663</v>
       </c>
@@ -6646,7 +6665,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>667</v>
       </c>
@@ -6669,7 +6688,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>671</v>
       </c>
@@ -6692,7 +6711,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>675</v>
       </c>
@@ -6715,7 +6734,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>679</v>
       </c>
@@ -6738,7 +6757,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>683</v>
       </c>
@@ -6761,7 +6780,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>688</v>
       </c>
@@ -6784,7 +6803,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>693</v>
       </c>
@@ -6807,7 +6826,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>697</v>
       </c>
@@ -6830,7 +6849,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>701</v>
       </c>
@@ -6853,7 +6872,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>705</v>
       </c>
@@ -6876,7 +6895,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>709</v>
       </c>
@@ -6899,7 +6918,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>705</v>
       </c>
@@ -6922,7 +6941,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>709</v>
       </c>
@@ -6945,7 +6964,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>712</v>
       </c>
@@ -6968,812 +6987,1384 @@
         <v>715</v>
       </c>
     </row>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="199" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B10" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>580</v>
+      </c>
+      <c r="B11" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>592</v>
+      </c>
+      <c r="B12" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>634</v>
+      </c>
+      <c r="B13" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>659</v>
+      </c>
+      <c r="B14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>266</v>
+      </c>
+      <c r="B23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>289</v>
+      </c>
+      <c r="B25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>289</v>
+      </c>
+      <c r="B26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>308</v>
+      </c>
+      <c r="B29" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>325</v>
+      </c>
+      <c r="B32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>325</v>
+      </c>
+      <c r="B33" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>329</v>
+      </c>
+      <c r="B34" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>329</v>
+      </c>
+      <c r="B35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>333</v>
+      </c>
+      <c r="B36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>333</v>
+      </c>
+      <c r="B37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>337</v>
+      </c>
+      <c r="B38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>341</v>
+      </c>
+      <c r="B39" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>341</v>
+      </c>
+      <c r="B40" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>353</v>
+      </c>
+      <c r="B41" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>353</v>
+      </c>
+      <c r="B42" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>393</v>
+      </c>
+      <c r="B43" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>409</v>
+      </c>
+      <c r="B44" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>414</v>
+      </c>
+      <c r="B45" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>418</v>
+      </c>
+      <c r="B46" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>502</v>
+      </c>
+      <c r="B47" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>506</v>
+      </c>
+      <c r="B48" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>597</v>
+      </c>
+      <c r="B49" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>601</v>
+      </c>
+      <c r="B50" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>705</v>
+      </c>
+      <c r="B51" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>709</v>
+      </c>
+      <c r="B52" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>705</v>
+      </c>
+      <c r="B53" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>709</v>
+      </c>
+      <c r="B54" t="s">
+        <v>706</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/eclipse-workspace/EjerciciosMaven/src/main/resources/_12_ejercicio/vehiculosElectricos.xlsx
+++ b/eclipse-workspace/EjerciciosMaven/src/main/resources/_12_ejercicio/vehiculosElectricos.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="salamanca" sheetId="4" r:id="rId2"/>
     <sheet name="valladolid" sheetId="5" r:id="rId3"/>
+    <sheet name="soria" r:id="rId9" sheetId="6"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:W16"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="717">
   <si>
     <t>Nombre</t>
   </si>
@@ -2174,12 +2175,16 @@
   </si>
   <si>
     <t>42.00783, -4.540665</t>
+  </si>
+  <si>
+    <t>WeneaWenea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2444,10 +2449,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="61.85546875" customWidth="1"/>
-    <col min="3" max="3" width="89.7109375" customWidth="1"/>
-    <col min="4" max="26" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="39.140625"/>
+    <col min="2" max="2" customWidth="true" width="61.85546875"/>
+    <col min="3" max="3" customWidth="true" width="89.7109375"/>
+    <col min="4" max="26" customWidth="true" width="10.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2727,7 +2732,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>716</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>33</v>
@@ -2796,7 +2801,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>716</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>33</v>
@@ -5549,7 +5554,7 @@
         <v>484</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>62</v>
+        <v>716</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>33</v>
@@ -5572,7 +5577,7 @@
         <v>488</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>62</v>
+        <v>716</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>33</v>
@@ -5871,7 +5876,7 @@
         <v>522</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>62</v>
+        <v>716</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>33</v>
@@ -5986,7 +5991,7 @@
         <v>543</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>62</v>
+        <v>716</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>33</v>
@@ -6262,7 +6267,7 @@
         <v>593</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>62</v>
+        <v>716</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>33</v>
@@ -7804,114 +7809,114 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>491</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>529</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>533</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>542</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>555</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>572</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>580</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>592</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>593</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>634</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>659</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>660</v>
       </c>
     </row>
@@ -7928,443 +7933,488 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.42578125"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>243</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>247</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>247</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>255</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>259</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>259</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>255</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>262</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>262</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>289</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>289</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>320</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>325</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>325</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>329</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>329</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>333</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="0">
         <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>333</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="0">
         <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>337</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>341</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="0">
         <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>341</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="0">
         <v>342</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>353</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="s" s="0">
         <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>353</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="0">
         <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>393</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="0">
         <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>409</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="0">
         <v>410</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>414</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="0">
         <v>415</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>418</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="0">
         <v>419</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>502</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="0">
         <v>503</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>506</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="0">
         <v>503</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>597</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="s" s="0">
         <v>598</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>601</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="0">
         <v>602</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>705</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="0">
         <v>706</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>709</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="0">
         <v>706</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>705</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="0">
         <v>706</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>709</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="s" s="0">
         <v>706</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>522</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>